--- a/Data/EC/NIT-9013514655.xlsx
+++ b/Data/EC/NIT-9013514655.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9018F276-764B-4CD2-BBBB-840801E605B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E181D61-CE6D-4784-94B3-3764732BD453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{184764D6-AC70-4D96-8529-7AAA191F74AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B369BEA-C2FD-45AE-94EE-C1D0D126D023}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,33 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32909368</t>
+  </si>
+  <si>
+    <t>YESSICA PAOLA OROZCO TORRES</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>1050955684</t>
   </si>
   <si>
@@ -74,6 +101,45 @@
     <t>2003</t>
   </si>
   <si>
+    <t>1047404683</t>
+  </si>
+  <si>
+    <t>MANUEL GREGORIO ROJAS BURGOS</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>15679405</t>
+  </si>
+  <si>
+    <t>EDUAD ANTONIO BETIN URANGO</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1143384205</t>
+  </si>
+  <si>
+    <t>JORGE ELIECER LARES SOLANO</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1143398518</t>
+  </si>
+  <si>
+    <t>NATALY CARDENAS MOJICA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>1079884775</t>
   </si>
   <si>
@@ -83,15 +149,6 @@
     <t>2006</t>
   </si>
   <si>
-    <t>32909368</t>
-  </si>
-  <si>
-    <t>YESSICA PAOLA OROZCO TORRES</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
     <t>1001976142</t>
   </si>
   <si>
@@ -104,58 +161,10 @@
     <t>ANA MARCELA PEREZ BALSEIRO</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
     <t>1045765770</t>
   </si>
   <si>
     <t>JHAN CARLOS PINO NIEBLES</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1143398518</t>
-  </si>
-  <si>
-    <t>NATALY CARDENAS MOJICA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1143384205</t>
-  </si>
-  <si>
-    <t>JORGE ELIECER LARES SOLANO</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1047404683</t>
-  </si>
-  <si>
-    <t>MANUEL GREGORIO ROJAS BURGOS</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4169C2-9BD0-DDC6-8440-899C91DE8FE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F319BDBC-D182-E8EE-9FBE-C09BC5053B78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389BCEF7-F0D2-4D50-9E05-3F67327BBA0E}">
-  <dimension ref="B2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC85497-C233-49D8-A0D3-891379E395D0}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -945,7 +954,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +999,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1031,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>932497</v>
+        <v>939519</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1047,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>4682</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1158,19 +1167,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>14536</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>8480</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1256,13 +1265,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>4682</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1296,19 +1305,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>7022</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,19 +1351,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,19 +1374,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,19 +1397,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>2267</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>1700000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1443,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,13 +1466,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1480,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1503,13 +1512,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1526,13 +1535,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1549,16 +1558,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18">
-        <v>24227</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
         <v>908526</v>
@@ -1572,16 +1581,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>14536</v>
       </c>
       <c r="G37" s="18">
         <v>908526</v>
@@ -1595,13 +1604,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1618,19 +1627,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F39" s="18">
-        <v>2267</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F40" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1664,19 +1673,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1687,19 +1696,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1710,75 +1719,98 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G44" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="D44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="18">
+        <v>8480</v>
+      </c>
+      <c r="G44" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="24">
+        <v>24227</v>
+      </c>
+      <c r="G45" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C50" s="32"/>
       <c r="H50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013514655.xlsx
+++ b/Data/EC/NIT-9013514655.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E181D61-CE6D-4784-94B3-3764732BD453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF7CD4F-84E7-4C5A-8FDE-E452536648E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B369BEA-C2FD-45AE-94EE-C1D0D126D023}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CD0FA00-C7EB-4900-A2BD-CEB716E1EF9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,40 +65,85 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050955684</t>
+  </si>
+  <si>
+    <t>ROSALBA PEREZ MORALES</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1079884775</t>
+  </si>
+  <si>
+    <t>YAJAIRA PACHECO DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>32909368</t>
   </si>
   <si>
     <t>YESSICA PAOLA OROZCO TORRES</t>
   </si>
   <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>1001976142</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA ZABALETA VILLALOBOS</t>
+  </si>
+  <si>
+    <t>1047498514</t>
+  </si>
+  <si>
+    <t>ANA MARCELA PEREZ BALSEIRO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1050955684</t>
-  </si>
-  <si>
-    <t>ROSALBA PEREZ MORALES</t>
-  </si>
-  <si>
-    <t>2003</t>
+    <t>1045765770</t>
+  </si>
+  <si>
+    <t>JHAN CARLOS PINO NIEBLES</t>
+  </si>
+  <si>
+    <t>1143398518</t>
+  </si>
+  <si>
+    <t>NATALY CARDENAS MOJICA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1143384205</t>
+  </si>
+  <si>
+    <t>JORGE ELIECER LARES SOLANO</t>
+  </si>
+  <si>
+    <t>2208</t>
   </si>
   <si>
     <t>1047404683</t>
@@ -107,64 +152,10 @@
     <t>MANUEL GREGORIO ROJAS BURGOS</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>15679405</t>
-  </si>
-  <si>
-    <t>EDUAD ANTONIO BETIN URANGO</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>1143384205</t>
-  </si>
-  <si>
-    <t>JORGE ELIECER LARES SOLANO</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1143398518</t>
-  </si>
-  <si>
-    <t>NATALY CARDENAS MOJICA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1079884775</t>
-  </si>
-  <si>
-    <t>YAJAIRA PACHECO DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1001976142</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA ZABALETA VILLALOBOS</t>
-  </si>
-  <si>
-    <t>1047498514</t>
-  </si>
-  <si>
-    <t>ANA MARCELA PEREZ BALSEIRO</t>
-  </si>
-  <si>
-    <t>1045765770</t>
-  </si>
-  <si>
-    <t>JHAN CARLOS PINO NIEBLES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -263,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F319BDBC-D182-E8EE-9FBE-C09BC5053B78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D79C66-40D4-C87A-5415-CDDF7AC47730}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC85497-C233-49D8-A0D3-891379E395D0}">
-  <dimension ref="B2:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF9B5C2-46F9-4D0D-8870-FEAE4D5FFEF3}">
+  <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -954,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -999,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1031,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>939519</v>
+        <v>932497</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,17 +1038,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1084,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>4682</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1121,19 +1112,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1135,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1158,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>14536</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1190,19 +1181,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>8480</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1213,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1236,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1259,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>4682</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1282,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1328,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>7022</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1351,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1374,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1397,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1420,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>2267</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>1700000</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1443,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1466,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1489,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1512,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1535,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1558,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1581,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>14536</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
         <v>908526</v>
@@ -1604,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>24227</v>
       </c>
       <c r="G38" s="18">
         <v>908526</v>
@@ -1627,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>2267</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1700000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1650,16 +1641,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G40" s="18">
         <v>908526</v>
@@ -1673,19 +1664,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1696,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
         <v>908526</v>
@@ -1719,98 +1710,75 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="18">
-        <v>8480</v>
-      </c>
-      <c r="G44" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="24">
-        <v>24227</v>
-      </c>
-      <c r="G45" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
+      <c r="F44" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="32"/>
       <c r="H50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
